--- a/output/frat/fRAT_check_3_embeddings.xlsx
+++ b/output/frat/fRAT_check_3_embeddings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,16 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>relation_to_solution</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>relation_from_solution</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Accuracy</t>
         </is>
       </c>
@@ -512,7 +522,17 @@
           <t>question is "desires, distinct_from, antonym, related_to" to answer | question is "antonym, related_to, distinct_from" to statement | reply is "related_to, is_a, synonym, antonym" to answer | reply is "related_to" to statement | solution is "synonym, related_to" to answer | solution is "is_a" to statement</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>question "antonym" answer | question "desires" answer | question "distinct_from" answer | question "related_to" answer | question "antonym" statement | question "distinct_from" statement | question "related_to" statement | reply "antonym" answer | reply "related_to" answer | reply "related_to" answer | reply "related_to" answer | reply "synonym" answer | reply "synonym" answer | reply "synonym" answer | reply "synonym" answer | reply "related_to" statement | solution "related_to" answer | solution "related_to" answer | solution "is_a" statement</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>answer "antonym" question | answer "distinct_from" question | answer "related_to" question | answer "related_to" question | answer "related_to" reply | answer "related_to" reply | answer "synonym" reply | answer "synonym" reply | answer "is_a" reply | answer "related_to" solution | answer "related_to" solution | answer "synonym" solution</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -536,6 +556,8 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -574,7 +596,17 @@
           <t>antlers is "related_to" to deer | doe is "is_a, related_to" to deer | fawn is "is_a, related_to" to deer</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>doe "related_to" deer | doe "related_to" deer | doe "is_a" deer | doe "is_a" deer | fawn "is_a" deer | fawn "related_to" deer | fawn "related_to" deer | fawn "is_a" deer | fawn "is_a" deer | fawn "is_a" deer</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>deer "related_to" antlers | deer "related_to" doe | deer "related_to" fawn</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -613,7 +645,17 @@
           <t>bud is "related_to, is_a" to flower | bud is "related_to" to plant | dandelion is "is_a, related_to" to flower | dandelion is "related_to" to plant | petals is "related_to" to flower | petals is "related_to" to plant</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>bud "related_to" flower | bud "is_a" flower | bud "related_to" plant | dandelion "is_a" flower | dandelion "related_to" flower | dandelion "related_to" flower | dandelion "related_to" plant | dandelion "related_to" plant</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>flower "related_to" bud | flower "related_to" petals | plant "related_to" petals</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -652,7 +694,17 @@
           <t>colt is "related_to, is_a" to horse | mare is "related_to, part_of, is_a" to horse | unicorn is "related_to" to horse</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>colt "related_to" horse | colt "related_to" horse | colt "is_a" horse | colt "is_a" horse | mare "is_a" horse | mare "related_to" horse | mare "related_to" horse | mare "is_a" horse | mare "part_of" horse | mare "is_a" horse | unicorn "related_to" horse</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>horse "related_to" colt | horse "related_to" colt | horse "related_to" mare | horse "related_to" mare | horse "related_to" mare | horse "related_to" unicorn</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -676,6 +728,8 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -714,7 +768,17 @@
           <t>algebra is "has_context, related_to" to mathematics | algebra is "is_a" to pure_mathematics | algebra is "related_to" to geometry | calculus is "has_context, related_to" to mathematics | calculus is "is_a" to pure_mathematics | calculus is "related_to" to geometry | trigonometry is "has_context, related_to" to mathematics | trigonometry is "is_a" to pure_mathematics | trigonometry is "related_to" to geometry</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>algebra "has_context" mathematics | algebra "has_context" mathematics | algebra "is_a" pure_mathematics | algebra "related_to" geometry | calculus "has_context" mathematics | calculus "related_to" mathematics | calculus "has_context" mathematics | calculus "is_a" pure_mathematics | calculus "related_to" geometry | trigonometry "has_context" mathematics | trigonometry "related_to" mathematics | trigonometry "has_context" mathematics | trigonometry "is_a" pure_mathematics | trigonometry "related_to" geometry</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>mathematics "related_to" algebra</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,6 +802,8 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -761,6 +827,8 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -784,6 +852,8 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -822,7 +892,17 @@
           <t>astronomy is "has_context" to celestial_body | astronomy is "related_to, has_context" to star | moon is "related_to" to celestial_body | moon is "related_to, distinct_from" to star | twinkle is "has_context" to celestial_body | twinkle is "related_to" to star</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>astronomy "related_to" star | moon "related_to" celestial_body | moon "related_to" star | twinkle "has_context" celestial_body</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>celestial_body "has_context" astronomy | celestial_body "related_to" moon | star "related_to" astronomy | star "has_context" astronomy | star "distinct_from" moon | star "related_to" moon | star "related_to" twinkle</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -861,7 +941,17 @@
           <t>bait is "related_to" to fish | bait is "related_to" to water | pond is "related_to, at_location, used_for" to fish | pond is "related_to, has_a" to water | tuna is "related_to, is_a" to fish | tuna is "at_location" to water</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>bait "related_to" fish | bait "related_to" water | pond "related_to" fish | pond "used_for" fish | pond "has_a" water | pond "related_to" water | pond "related_to" water | tuna "related_to" fish | tuna "is_a" fish | tuna "is_a" fish | tuna "is_a" fish | tuna "at_location" water</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fish "related_to" bait | fish "at_location" pond | fish "related_to" tuna</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -885,6 +975,8 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -923,7 +1015,17 @@
           <t>gravity is "related_to" to down | gravity is "related_to" to ground | gravity is "related_to" to hill | low is "related_to" to down | low is "related_to" to ground | low is "related_to" to hill | up is "antonym, distinct_from, related_to" to down | up is "related_to" to ground | up is "related_to" to hill</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>gravity "related_to" down | low "related_to" down | low "related_to" ground | low "related_to" ground | up "antonym" down | up "antonym" down | up "antonym" down | up "antonym" down | up "distinct_from" down | up "related_to" down</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>down "related_to" low | down "related_to" low | down "related_to" low | down "antonym" up | down "antonym" up | down "antonym" up | down "antonym" up | down "distinct_from" up | down "related_to" up | ground "related_to" gravity | ground "related_to" low | ground "related_to" up | hill "related_to" gravity | hill "related_to" low | hill "related_to" up</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,7 +1064,17 @@
           <t>emergency is "causes_desire" to run | rapid is "related_to" to run | slow is "related_to" to run</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>emergency "causes_desire" run | slow "related_to" run</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>run "related_to" rapid | run "related_to" rapid | run "related_to" slow</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1001,7 +1113,17 @@
           <t>brawl is "is_a, related_to" to fight | debate is "related_to" to fight | soldier is "used_for, related_to, desires" to fight</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>brawl "related_to" fight | brawl "related_to" fight | brawl "related_to" fight | brawl "is_a" fight | debate "related_to" fight | soldier "desires" fight | soldier "related_to" fight | soldier "used_for" fight</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fight "related_to" brawl</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1025,6 +1147,8 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1063,7 +1187,17 @@
           <t>finger is "part_of, related_to, at_location" to hand | glove is "related_to" to hand | palm is "related_to, part_of" to hand</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>finger "at_location" hand | finger "part_of" hand | finger "part_of" hand | finger "related_to" hand | finger "related_to" hand | finger "part_of" hand | glove "related_to" hand | palm "part_of" hand | palm "related_to" hand | palm "part_of" hand</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>hand "related_to" finger | hand "related_to" glove | hand "related_to" palm</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1087,6 +1221,8 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1125,7 +1261,17 @@
           <t>discuss is "related_to" to talk | gossip is "is_a, related_to" to talk | telephone is "related_to" to talk</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>gossip "related_to" talk | telephone "related_to" talk</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>talk "related_to" discuss | talk "related_to" discuss | talk "related_to" discuss | talk "related_to" gossip | talk "related_to" gossip | talk "is_a" gossip</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1149,6 +1295,8 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1172,6 +1320,8 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1195,6 +1345,8 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1218,6 +1370,8 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1241,6 +1395,8 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1264,6 +1420,8 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1302,7 +1460,17 @@
           <t>bench is "related_to" to sitting | bench is "distinct_from, related_to" to chair | bench is "is_a, used_for, related_to" to seat | bench is "is_a" to furniture | sofa is "related_to" to sitting | sofa is "is_a, distinct_from, related_to" to chair | sofa is "is_a, used_for, related_to" to seat | sofa is "has_context, is_a, related_to" to furniture | stool is "related_to" to sitting | stool is "etymologically_related_to, is_a, antonym, synonym, related_to" to chair | stool is "is_a, related_to" to seat | stool is "is_a" to furniture</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>bench "related_to" sitting | bench "distinct_from" chair | bench "related_to" chair | bench "related_to" seat | bench "related_to" seat | bench "is_a" seat | bench "is_a" seat | bench "is_a" seat | bench "used_for" seat | bench "is_a" furniture | sofa "related_to" sitting | sofa "is_a" chair | sofa "related_to" seat | sofa "is_a" seat | sofa "is_a" seat | sofa "used_for" seat | sofa "has_context" furniture | sofa "related_to" furniture | sofa "is_a" furniture | stool "related_to" sitting | stool "related_to" chair | stool "related_to" chair | stool "is_a" seat | stool "related_to" seat | stool "related_to" seat | stool "is_a" seat | stool "is_a" seat | stool "is_a" furniture</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>chair "related_to" bench | chair "related_to" bench | chair "distinct_from" sofa | chair "related_to" sofa | chair "related_to" sofa | chair "antonym" stool | chair "etymologically_related_to" stool | chair "is_a" stool | chair "related_to" stool | chair "related_to" stool | chair "synonym" stool | seat "related_to" bench | seat "related_to" bench | seat "related_to" sofa | seat "related_to" stool | seat "related_to" stool</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1341,7 +1509,13 @@
           <t>beaker is "related_to, at_location" to laboratory | beaker is "at_location" to lab | flask is "related_to, at_location" to laboratory | flask is "at_location" to lab | science is "related_to" to laboratory | science is "related_to" to lab</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>beaker "at_location" laboratory | beaker "related_to" laboratory | beaker "at_location" lab | flask "at_location" laboratory | flask "related_to" laboratory | flask "at_location" lab | science "related_to" laboratory | science "related_to" lab</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1365,6 +1539,8 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1388,6 +1564,8 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1411,6 +1589,8 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1449,7 +1629,17 @@
           <t>hand is "at_location, part_of, related_to" to finger | toe is "similar_to, synonym, distinct_from, antonym, related_to" to finger | trigger is "related_to" to finger</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>hand "related_to" finger | toe "antonym" finger | toe "related_to" finger | toe "similar_to" finger | trigger "related_to" finger</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>finger "at_location" hand | finger "part_of" hand | finger "part_of" hand | finger "related_to" hand | finger "related_to" hand | finger "part_of" hand | finger "antonym" toe | finger "distinct_from" toe | finger "distinct_from" toe | finger "related_to" toe | finger "synonym" toe</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1488,7 +1678,13 @@
           <t>angel is "related_to" to religious | church is "related_to" to religious | faith is "related_to" to religious</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>angel "related_to" religious | church "related_to" religious | church "related_to" religious | church "related_to" religious | faith "related_to" religious | faith "related_to" religious</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1512,6 +1708,8 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1535,6 +1733,8 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1558,6 +1758,8 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1596,7 +1798,17 @@
           <t>arrest is "capable_of" to police | badge is "related_to" to police | deputy is "related_to" to police</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>badge "related_to" police | deputy "related_to" police</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>police "capable_of" arrest</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1620,6 +1832,8 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1643,6 +1857,8 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1666,6 +1882,8 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1689,6 +1907,8 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1712,6 +1932,8 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1735,6 +1957,8 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1758,6 +1982,8 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1781,6 +2007,8 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1804,6 +2032,8 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1827,6 +2057,8 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1839,7 +2071,9 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>27.66%</t>
         </is>
